--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F11r-Jam2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F11r-Jam2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F11r</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.6912860356585</v>
+        <v>35.79856333333333</v>
       </c>
       <c r="H2">
-        <v>35.6912860356585</v>
+        <v>107.39569</v>
       </c>
       <c r="I2">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044928</v>
       </c>
       <c r="J2">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044927</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>79.6310094406919</v>
+        <v>81.04438</v>
       </c>
       <c r="N2">
-        <v>79.6310094406919</v>
+        <v>243.13314</v>
       </c>
       <c r="O2">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="P2">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="Q2">
-        <v>2842.133135255957</v>
+        <v>2901.272370240733</v>
       </c>
       <c r="R2">
-        <v>2842.133135255957</v>
+        <v>26111.4513321666</v>
       </c>
       <c r="S2">
-        <v>0.8314841031823841</v>
+        <v>0.8058819174816202</v>
       </c>
       <c r="T2">
-        <v>0.8314841031823841</v>
+        <v>0.8058819174816201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.6912860356585</v>
+        <v>35.79856333333333</v>
       </c>
       <c r="H3">
-        <v>35.6912860356585</v>
+        <v>107.39569</v>
       </c>
       <c r="I3">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044928</v>
       </c>
       <c r="J3">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044927</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.55823765776532</v>
+        <v>2.673647</v>
       </c>
       <c r="N3">
-        <v>2.55823765776532</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="O3">
-        <v>0.03071969346687971</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="P3">
-        <v>0.03071969346687971</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="Q3">
-        <v>91.30679199049507</v>
+        <v>95.71272146047669</v>
       </c>
       <c r="R3">
-        <v>91.30679199049507</v>
+        <v>861.4144931442901</v>
       </c>
       <c r="S3">
-        <v>0.02671238201719219</v>
+        <v>0.0265859738951545</v>
       </c>
       <c r="T3">
-        <v>0.02671238201719219</v>
+        <v>0.02658597389515449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.6912860356585</v>
+        <v>35.79856333333333</v>
       </c>
       <c r="H4">
-        <v>35.6912860356585</v>
+        <v>107.39569</v>
       </c>
       <c r="I4">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044928</v>
       </c>
       <c r="J4">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044927</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.128982111943781</v>
+        <v>0.1781623333333333</v>
       </c>
       <c r="N4">
-        <v>0.128982111943781</v>
+        <v>0.534487</v>
       </c>
       <c r="O4">
-        <v>0.001548836141003752</v>
+        <v>0.002090160248213055</v>
       </c>
       <c r="P4">
-        <v>0.001548836141003752</v>
+        <v>0.002090160248213055</v>
       </c>
       <c r="Q4">
-        <v>4.603537450868813</v>
+        <v>6.377955573447778</v>
       </c>
       <c r="R4">
-        <v>4.603537450868813</v>
+        <v>57.40160016103</v>
       </c>
       <c r="S4">
-        <v>0.001346794124919645</v>
+        <v>0.001771594807803653</v>
       </c>
       <c r="T4">
-        <v>0.001346794124919645</v>
+        <v>0.001771594807803653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.6912860356585</v>
+        <v>35.79856333333333</v>
       </c>
       <c r="H5">
-        <v>35.6912860356585</v>
+        <v>107.39569</v>
       </c>
       <c r="I5">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044928</v>
       </c>
       <c r="J5">
-        <v>0.8695523621025718</v>
+        <v>0.8475880303044927</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.958567171811332</v>
+        <v>0.16027</v>
       </c>
       <c r="N5">
-        <v>0.958567171811332</v>
+        <v>0.48081</v>
       </c>
       <c r="O5">
-        <v>0.01151061536291373</v>
+        <v>0.001880251435382561</v>
       </c>
       <c r="P5">
-        <v>0.01151061536291373</v>
+        <v>0.001880251435382561</v>
       </c>
       <c r="Q5">
-        <v>34.21249511351046</v>
+        <v>5.737435745433333</v>
       </c>
       <c r="R5">
-        <v>34.21249511351046</v>
+        <v>51.6369217089</v>
       </c>
       <c r="S5">
-        <v>0.01000908277807579</v>
+        <v>0.0015936786105931</v>
       </c>
       <c r="T5">
-        <v>0.01000908277807579</v>
+        <v>0.0015936786105931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.61751629644944</v>
+        <v>35.79856333333333</v>
       </c>
       <c r="H6">
-        <v>1.61751629644944</v>
+        <v>107.39569</v>
       </c>
       <c r="I6">
-        <v>0.03940780152645078</v>
+        <v>0.8475880303044928</v>
       </c>
       <c r="J6">
-        <v>0.03940780152645078</v>
+        <v>0.8475880303044927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.6310094406919</v>
+        <v>1.182140666666667</v>
       </c>
       <c r="N6">
-        <v>79.6310094406919</v>
+        <v>3.546422</v>
       </c>
       <c r="O6">
-        <v>0.9562208550292027</v>
+        <v>0.01386860725852685</v>
       </c>
       <c r="P6">
-        <v>0.9562208550292027</v>
+        <v>0.01386860725852685</v>
       </c>
       <c r="Q6">
-        <v>128.8044554730384</v>
+        <v>42.31893752457556</v>
       </c>
       <c r="R6">
-        <v>128.8044554730384</v>
+        <v>380.8704377211801</v>
       </c>
       <c r="S6">
-        <v>0.03768256167044388</v>
+        <v>0.01175486550932136</v>
       </c>
       <c r="T6">
-        <v>0.03768256167044388</v>
+        <v>0.01175486550932136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.61751629644944</v>
+        <v>1.674518333333333</v>
       </c>
       <c r="H7">
-        <v>1.61751629644944</v>
+        <v>5.023555</v>
       </c>
       <c r="I7">
-        <v>0.03940780152645078</v>
+        <v>0.0396468898107204</v>
       </c>
       <c r="J7">
-        <v>0.03940780152645078</v>
+        <v>0.03964688981072039</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.55823765776532</v>
+        <v>81.04438</v>
       </c>
       <c r="N7">
-        <v>2.55823765776532</v>
+        <v>243.13314</v>
       </c>
       <c r="O7">
-        <v>0.03071969346687971</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="P7">
-        <v>0.03071969346687971</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="Q7">
-        <v>4.137991101626051</v>
+        <v>135.7103001236333</v>
       </c>
       <c r="R7">
-        <v>4.137991101626051</v>
+        <v>1221.3927011127</v>
       </c>
       <c r="S7">
-        <v>0.001210595583096202</v>
+        <v>0.03769603916110954</v>
       </c>
       <c r="T7">
-        <v>0.001210595583096202</v>
+        <v>0.03769603916110954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.61751629644944</v>
+        <v>1.674518333333333</v>
       </c>
       <c r="H8">
-        <v>1.61751629644944</v>
+        <v>5.023555</v>
       </c>
       <c r="I8">
-        <v>0.03940780152645078</v>
+        <v>0.0396468898107204</v>
       </c>
       <c r="J8">
-        <v>0.03940780152645078</v>
+        <v>0.03964688981072039</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.128982111943781</v>
+        <v>2.673647</v>
       </c>
       <c r="N8">
-        <v>0.128982111943781</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="O8">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="P8">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="Q8">
-        <v>0.2086306680195318</v>
+        <v>4.477070918361667</v>
       </c>
       <c r="R8">
-        <v>0.2086306680195318</v>
+        <v>40.29363826525501</v>
       </c>
       <c r="S8">
-        <v>6.103622724166981E-05</v>
+        <v>0.00124358903128117</v>
       </c>
       <c r="T8">
-        <v>6.103622724166981E-05</v>
+        <v>0.00124358903128117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.61751629644944</v>
+        <v>1.674518333333333</v>
       </c>
       <c r="H9">
-        <v>1.61751629644944</v>
+        <v>5.023555</v>
       </c>
       <c r="I9">
-        <v>0.03940780152645078</v>
+        <v>0.0396468898107204</v>
       </c>
       <c r="J9">
-        <v>0.03940780152645078</v>
+        <v>0.03964688981072039</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.958567171811332</v>
+        <v>0.1781623333333333</v>
       </c>
       <c r="N9">
-        <v>0.958567171811332</v>
+        <v>0.534487</v>
       </c>
       <c r="O9">
-        <v>0.01151061536291373</v>
+        <v>0.002090160248213055</v>
       </c>
       <c r="P9">
-        <v>0.01151061536291373</v>
+        <v>0.002090160248213055</v>
       </c>
       <c r="Q9">
-        <v>1.55049802164628</v>
+        <v>0.2983360934761111</v>
       </c>
       <c r="R9">
-        <v>1.55049802164628</v>
+        <v>2.685024841285</v>
       </c>
       <c r="S9">
-        <v>0.0004536080456690195</v>
+        <v>8.2868353047651E-05</v>
       </c>
       <c r="T9">
-        <v>0.0004536080456690195</v>
+        <v>8.286835304765099E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.73678340968363</v>
+        <v>1.674518333333333</v>
       </c>
       <c r="H10">
-        <v>3.73678340968363</v>
+        <v>5.023555</v>
       </c>
       <c r="I10">
-        <v>0.09103983637097746</v>
+        <v>0.0396468898107204</v>
       </c>
       <c r="J10">
-        <v>0.09103983637097746</v>
+        <v>0.03964688981072039</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>79.6310094406919</v>
+        <v>0.16027</v>
       </c>
       <c r="N10">
-        <v>79.6310094406919</v>
+        <v>0.48081</v>
       </c>
       <c r="O10">
-        <v>0.9562208550292027</v>
+        <v>0.001880251435382561</v>
       </c>
       <c r="P10">
-        <v>0.9562208550292027</v>
+        <v>0.001880251435382561</v>
       </c>
       <c r="Q10">
-        <v>297.563834974338</v>
+        <v>0.2683750532833333</v>
       </c>
       <c r="R10">
-        <v>297.563834974338</v>
+        <v>2.41537547955</v>
       </c>
       <c r="S10">
-        <v>0.08705419017637477</v>
+        <v>7.454612147506127E-05</v>
       </c>
       <c r="T10">
-        <v>0.08705419017637477</v>
+        <v>7.454612147506125E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.73678340968363</v>
+        <v>1.674518333333333</v>
       </c>
       <c r="H11">
-        <v>3.73678340968363</v>
+        <v>5.023555</v>
       </c>
       <c r="I11">
-        <v>0.09103983637097746</v>
+        <v>0.0396468898107204</v>
       </c>
       <c r="J11">
-        <v>0.09103983637097746</v>
+        <v>0.03964688981072039</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.55823765776532</v>
+        <v>1.182140666666667</v>
       </c>
       <c r="N11">
-        <v>2.55823765776532</v>
+        <v>3.546422</v>
       </c>
       <c r="O11">
-        <v>0.03071969346687971</v>
+        <v>0.01386860725852685</v>
       </c>
       <c r="P11">
-        <v>0.03071969346687971</v>
+        <v>0.01386860725852685</v>
       </c>
       <c r="Q11">
-        <v>9.559580037565356</v>
+        <v>1.979516218912222</v>
       </c>
       <c r="R11">
-        <v>9.559580037565356</v>
+        <v>17.81564597021</v>
       </c>
       <c r="S11">
-        <v>0.002796715866591314</v>
+        <v>0.0005498471438069711</v>
       </c>
       <c r="T11">
-        <v>0.002796715866591314</v>
+        <v>0.0005498471438069709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.73678340968363</v>
+        <v>4.668579666666667</v>
       </c>
       <c r="H12">
-        <v>3.73678340968363</v>
+        <v>14.005739</v>
       </c>
       <c r="I12">
-        <v>0.09103983637097746</v>
+        <v>0.1105360627783929</v>
       </c>
       <c r="J12">
-        <v>0.09103983637097746</v>
+        <v>0.1105360627783929</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.128982111943781</v>
+        <v>81.04438</v>
       </c>
       <c r="N12">
-        <v>0.128982111943781</v>
+        <v>243.13314</v>
       </c>
       <c r="O12">
-        <v>0.001548836141003752</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="P12">
-        <v>0.001548836141003752</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="Q12">
-        <v>0.4819782160574776</v>
+        <v>378.3621445656067</v>
       </c>
       <c r="R12">
-        <v>0.4819782160574776</v>
+        <v>3405.259301090461</v>
       </c>
       <c r="S12">
-        <v>0.0001410057888424378</v>
+        <v>0.1050970648921489</v>
       </c>
       <c r="T12">
-        <v>0.0001410057888424378</v>
+        <v>0.1050970648921489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.73678340968363</v>
+        <v>4.668579666666667</v>
       </c>
       <c r="H13">
-        <v>3.73678340968363</v>
+        <v>14.005739</v>
       </c>
       <c r="I13">
-        <v>0.09103983637097746</v>
+        <v>0.1105360627783929</v>
       </c>
       <c r="J13">
-        <v>0.09103983637097746</v>
+        <v>0.1105360627783929</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.958567171811332</v>
+        <v>2.673647</v>
       </c>
       <c r="N13">
-        <v>0.958567171811332</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="O13">
-        <v>0.01151061536291373</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="P13">
-        <v>0.01151061536291373</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="Q13">
-        <v>3.581957904691943</v>
+        <v>12.48213402004434</v>
       </c>
       <c r="R13">
-        <v>3.581957904691943</v>
+        <v>112.339206180399</v>
       </c>
       <c r="S13">
-        <v>0.001047924539168925</v>
+        <v>0.003467142968552531</v>
       </c>
       <c r="T13">
-        <v>0.001047924539168925</v>
+        <v>0.00346714296855253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.668579666666667</v>
+      </c>
+      <c r="H14">
+        <v>14.005739</v>
+      </c>
+      <c r="I14">
+        <v>0.1105360627783929</v>
+      </c>
+      <c r="J14">
+        <v>0.1105360627783929</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1781623333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.534487</v>
+      </c>
+      <c r="O14">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="P14">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="Q14">
+        <v>0.831765046765889</v>
+      </c>
+      <c r="R14">
+        <v>7.485885420893002</v>
+      </c>
+      <c r="S14">
+        <v>0.0002310380844133795</v>
+      </c>
+      <c r="T14">
+        <v>0.0002310380844133795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.668579666666667</v>
+      </c>
+      <c r="H15">
+        <v>14.005739</v>
+      </c>
+      <c r="I15">
+        <v>0.1105360627783929</v>
+      </c>
+      <c r="J15">
+        <v>0.1105360627783929</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.16027</v>
+      </c>
+      <c r="N15">
+        <v>0.48081</v>
+      </c>
+      <c r="O15">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="P15">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="Q15">
+        <v>0.7482332631766667</v>
+      </c>
+      <c r="R15">
+        <v>6.734099368590001</v>
+      </c>
+      <c r="S15">
+        <v>0.0002078355907006101</v>
+      </c>
+      <c r="T15">
+        <v>0.0002078355907006101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.668579666666667</v>
+      </c>
+      <c r="H16">
+        <v>14.005739</v>
+      </c>
+      <c r="I16">
+        <v>0.1105360627783929</v>
+      </c>
+      <c r="J16">
+        <v>0.1105360627783929</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.182140666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.546422</v>
+      </c>
+      <c r="O16">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="P16">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="Q16">
+        <v>5.518917879539779</v>
+      </c>
+      <c r="R16">
+        <v>49.67026091585801</v>
+      </c>
+      <c r="S16">
+        <v>0.001532981242577399</v>
+      </c>
+      <c r="T16">
+        <v>0.001532981242577398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.09414433333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.282433</v>
+      </c>
+      <c r="I17">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="J17">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>81.04438</v>
+      </c>
+      <c r="N17">
+        <v>243.13314</v>
+      </c>
+      <c r="O17">
+        <v>0.9507943584244697</v>
+      </c>
+      <c r="P17">
+        <v>0.9507943584244697</v>
+      </c>
+      <c r="Q17">
+        <v>7.629869125513333</v>
+      </c>
+      <c r="R17">
+        <v>68.66882212962001</v>
+      </c>
+      <c r="S17">
+        <v>0.002119336889591066</v>
+      </c>
+      <c r="T17">
+        <v>0.002119336889591066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.09414433333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.282433</v>
+      </c>
+      <c r="I18">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="J18">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.673647</v>
+      </c>
+      <c r="N18">
+        <v>8.020941000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.03136662263340787</v>
+      </c>
+      <c r="P18">
+        <v>0.03136662263340786</v>
+      </c>
+      <c r="Q18">
+        <v>0.2517087143836667</v>
+      </c>
+      <c r="R18">
+        <v>2.265378429453</v>
+      </c>
+      <c r="S18">
+        <v>6.991673841967187E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.991673841967186E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.09414433333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.282433</v>
+      </c>
+      <c r="I19">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="J19">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1781623333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.534487</v>
+      </c>
+      <c r="O19">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="P19">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="Q19">
+        <v>0.01677297409677778</v>
+      </c>
+      <c r="R19">
+        <v>0.150956766871</v>
+      </c>
+      <c r="S19">
+        <v>4.659002948371664E-06</v>
+      </c>
+      <c r="T19">
+        <v>4.659002948371664E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.09414433333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.282433</v>
+      </c>
+      <c r="I20">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="J20">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.16027</v>
+      </c>
+      <c r="N20">
+        <v>0.48081</v>
+      </c>
+      <c r="O20">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="P20">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="Q20">
+        <v>0.01508851230333333</v>
+      </c>
+      <c r="R20">
+        <v>0.13579661073</v>
+      </c>
+      <c r="S20">
+        <v>4.191112613789632E-06</v>
+      </c>
+      <c r="T20">
+        <v>4.191112613789632E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.09414433333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.282433</v>
+      </c>
+      <c r="I21">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="J21">
+        <v>0.002229017106394016</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.182140666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.546422</v>
+      </c>
+      <c r="O21">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="P21">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="Q21">
+        <v>0.1112918449695556</v>
+      </c>
+      <c r="R21">
+        <v>1.001626604726</v>
+      </c>
+      <c r="S21">
+        <v>3.091336282111657E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.091336282111656E-05</v>
       </c>
     </row>
   </sheetData>
